--- a/src/test/resources/case/processTest.xlsx
+++ b/src/test/resources/case/processTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,14 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addTrainTest.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addEducationTest.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>train</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,14 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddJobTest.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addIntentionTest.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,15 +73,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>evaluationTest.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>evaluation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>add1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intention.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>education1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +430,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,18 +467,18 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -482,35 +486,35 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
